--- a/relatorio/resultados.xlsx
+++ b/relatorio/resultados.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francisco\Desktop\quicksort_partition\relatorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HugoPiauilino/Desktop/quicksort_partition/relatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -73,10 +76,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,10 +97,1179 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1600" baseline="0"/>
+              <a:t>Hoare x Lomuto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hoare</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0362</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lomuto</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$A$3:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$N$3:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.0102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0124</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0306</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2126060992"/>
+        <c:axId val="-2034713952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2126060992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400" baseline="0"/>
+                  <a:t>Quantidade de Elementos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.395047987817115"/>
+              <c:y val="0.812667371496596"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2034713952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2034713952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1400" baseline="0"/>
+                  <a:t>Tempo em segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2126060992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +1307,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -207,7 +1379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -359,32 +1531,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G3" activeCellId="1" sqref="N3:N11 G3:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G2" t="s">
         <v>2</v>
       </c>
@@ -392,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -435,7 +1607,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>500</v>
       </c>
@@ -478,7 +1650,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -521,7 +1693,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -564,7 +1736,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30000</v>
       </c>
@@ -607,7 +1779,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>80000</v>
       </c>
@@ -650,7 +1822,7 @@
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100000</v>
       </c>
@@ -693,7 +1865,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>150000</v>
       </c>
@@ -736,7 +1908,7 @@
         <v>5.4200000000000005E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>200000</v>
       </c>
@@ -785,5 +1957,6 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/relatorio/resultados.xlsx
+++ b/relatorio/resultados.xlsx
@@ -403,11 +403,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2126060992"/>
-        <c:axId val="-2034713952"/>
+        <c:axId val="-2094204704"/>
+        <c:axId val="-2084660912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2126060992"/>
+        <c:axId val="-2094204704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +513,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2034713952"/>
+        <c:crossAx val="-2084660912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -521,7 +521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2034713952"/>
+        <c:axId val="-2084660912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,7 +628,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126060992"/>
+        <c:crossAx val="-2094204704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1236,15 +1236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>151638</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>138938</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
